--- a/business-center/wms-center/wms-service/wms-business-delivery/src/main/resources/template/charg-template.xlsx
+++ b/business-center/wms-center/wms-service/wms-business-delivery/src/main/resources/template/charg-template.xlsx
@@ -21,13 +21,13 @@
     <t>DM单号</t>
   </si>
   <si>
-    <t>实重</t>
+    <t>实重(g)</t>
   </si>
   <si>
     <t>计费重</t>
   </si>
   <si>
-    <t>重量单位</t>
+    <t>计费重单位</t>
   </si>
   <si>
     <t>尺寸（cm）</t>
@@ -1033,13 +1033,14 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="27" style="1" customWidth="1"/>
-    <col min="2" max="4" width="9" style="1"/>
+    <col min="2" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="14.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.225" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.1083333333333" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
